--- a/docs/Casos de Teste.xlsx
+++ b/docs/Casos de Teste.xlsx
@@ -11,9 +11,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="32">
-  <si>
-    <t>Casos de Teste</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="64">
+  <si>
+    <t>Casos de Teste (Requisitos não Funcionais)</t>
+  </si>
+  <si>
+    <t>Casos de Teste (Requisitos Funcionais)</t>
   </si>
   <si>
     <t>Requisito</t>
@@ -25,34 +28,67 @@
     <t>Descrição do teste</t>
   </si>
   <si>
+    <t>RNF-01</t>
+  </si>
+  <si>
+    <t>Teste de interface (UI/UX)</t>
+  </si>
+  <si>
+    <t>Testar usabilidade, acessibilidade e comunicabilidade</t>
+  </si>
+  <si>
     <t>RF-01</t>
   </si>
   <si>
-    <t>Teste de interface (UI/UX)</t>
-  </si>
-  <si>
     <t>Testar usabilidade e comunicabilidade dos botões</t>
   </si>
   <si>
+    <t xml:space="preserve">Testar responsividade </t>
+  </si>
+  <si>
     <t>Teste extra</t>
   </si>
   <si>
-    <t>Vericar e validar em relação aos protótipos da documentação</t>
+    <t>Testar vericar e validar em relação aos protótipos da documentação</t>
+  </si>
+  <si>
+    <t>RNF-02</t>
+  </si>
+  <si>
+    <t>Teste de integridade do banco de dados</t>
+  </si>
+  <si>
+    <t>Testar se viola ou não ACID</t>
   </si>
   <si>
     <t>Testar navegabilidade dos botões em questão</t>
   </si>
   <si>
+    <t>Teste de desempenho e segurança</t>
+  </si>
+  <si>
+    <t>Testar com consultas variadas no banco de dados para medir tempo de resposta e garantir segurança da aplicação em relação ao cliente</t>
+  </si>
+  <si>
     <t>RF-02</t>
   </si>
   <si>
+    <t>Testar como o banco de dados se comporta quando hospedado na nuvem</t>
+  </si>
+  <si>
     <t>Testar usabilidade, comunicabilidade e acessibilidade da interface</t>
   </si>
   <si>
-    <t>Teste de integridade do banco de dados</t>
-  </si>
-  <si>
-    <t>Verificar se o processo de cadastro viola ou não ACID</t>
+    <t>RNF-03</t>
+  </si>
+  <si>
+    <t>Testar como a interface se comporta em caso de diferentes sistemas operacionais</t>
+  </si>
+  <si>
+    <t>Testar se o processo de cadastro viola ou não ACID</t>
+  </si>
+  <si>
+    <t>Testar como é a segurança geral do projeto em relação a diferentes sistemas operacionais. Verifcação de vulnerabilidades, testes de exploits específicos para OS x ou y, etc</t>
   </si>
   <si>
     <t>Teste de função</t>
@@ -61,10 +97,16 @@
     <t>Testar se as funções retornam os valores adequados, e funcionam como deviam com diferentes entradas e saídas</t>
   </si>
   <si>
-    <t>Teste de desempenho e segurança</t>
-  </si>
-  <si>
-    <t>Garantir que o usuário seja seguramente cadastrado sem violações de segurança, como duplicidade de dados, e violações de constraint, por exemplo</t>
+    <t>Testar como é o desempenho do sistema em caso de sistemas operacionais diferentes</t>
+  </si>
+  <si>
+    <t>Testar e garantir que o usuário seja seguramente cadastrado sem violações de segurança, como duplicidade de dados, e violações de constraint, por exemplo</t>
+  </si>
+  <si>
+    <t>Teste de verificação e validação</t>
+  </si>
+  <si>
+    <t>Testar no que implica à documentação sistemas operacionais diferentes</t>
   </si>
   <si>
     <t>RF-03</t>
@@ -75,7 +117,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve">Verificar se o processo viola ou não </t>
+      <t xml:space="preserve">Testar se o processo viola ou não </t>
     </r>
     <r>
       <rPr>
@@ -87,47 +129,101 @@
     </r>
   </si>
   <si>
-    <t>Garantir que o usuário seja autenticado e autorizado com segurança</t>
+    <t>Testar o app em sistemas operacionais diferentes quando já hospedado</t>
+  </si>
+  <si>
+    <t>RNF-04</t>
+  </si>
+  <si>
+    <t>Testar como a interface se comporta em caso de diferentes navegadores</t>
+  </si>
+  <si>
+    <t>Testar como é a segurança geral do projeto em relação a diferentes navegadores. Verifcação de vulnerabilidades, testes de exploits específicos para navegador x ou y, etc</t>
   </si>
   <si>
     <t>RF-04</t>
   </si>
   <si>
-    <t>Garantir que os dados sejam renderizados com um tempo de resposta adequado</t>
-  </si>
-  <si>
-    <t>Garantir que a interface demonstre de forma harmônica, acessível e adequada, os dados</t>
-  </si>
-  <si>
-    <t>Verificar se a interface funciona adequadamente, uma vez já hospedado</t>
+    <t>Testar que os dados sejam renderizados com um tempo de resposta adequado</t>
+  </si>
+  <si>
+    <t>Testar como é o desempenho do sistema em caso de navegadores diferentes</t>
+  </si>
+  <si>
+    <t>Testar que a interface demonstre de forma harmônica, acessível e adequada, os dados</t>
+  </si>
+  <si>
+    <t>Testar no que implica à documentação navegadores diferentes</t>
+  </si>
+  <si>
+    <t>Testar se a interface funciona adequadamente, uma vez já hospedado</t>
+  </si>
+  <si>
+    <t>Testar, verificar e validar em relação aos protótipos da documentação</t>
+  </si>
+  <si>
+    <t>RNF-05</t>
+  </si>
+  <si>
+    <t>Testar se o contraste entre os elementos da tela estão em conformidade</t>
   </si>
   <si>
     <t>RF-05</t>
   </si>
   <si>
+    <t>RNF-06</t>
+  </si>
+  <si>
+    <t>Testar o processo de autenticação e autorização como um todo, atentando-se a erros como de integridade da constraint, ou duplicidade de dados únicos de usuário, bem como a vulnerabilidades, como CSRF</t>
+  </si>
+  <si>
+    <t>Testar verificar se a interface funciona adequadamente, uma vez já hospedado</t>
+  </si>
+  <si>
+    <t>Testar acessibilidade, comunicabilidade e usabilidade da(s) interfaces pertinentes ao requisito</t>
+  </si>
+  <si>
     <t>RF-06</t>
   </si>
   <si>
-    <t>Verificar se o processo viola ou não ACID</t>
-  </si>
-  <si>
-    <t>Garantir que os dados sejam atualizados sem violações de segurança</t>
+    <t>Testar, verificar e validar o requisito, antes, durante e depois implementação, para garantir que o mesmo foi, validado e verificado</t>
+  </si>
+  <si>
+    <t>Testar se o processo viola ou não ACID</t>
+  </si>
+  <si>
+    <t>RNF-07</t>
+  </si>
+  <si>
+    <t>Testar como o sistema se comporta em relação a segurança quando hospedado</t>
+  </si>
+  <si>
+    <t>Testar e garantir que os dados sejam atualizados sem violações de segurança</t>
+  </si>
+  <si>
+    <t>Testar como o sistema se comporta em relação aos princípios ACID e de integridade geral, do banco de dados</t>
   </si>
   <si>
     <t>RF-07</t>
   </si>
   <si>
-    <t>Verificar se o processo de exclusão viola ou não ACID</t>
-  </si>
-  <si>
-    <t>Garantir que os dados sejam deletados sem violações de segurança</t>
+    <t>Testar acessibilidade, comunicabilidade e usabilidade da(s) interfaces pertinentes  quando o sistema estiver hospedado</t>
+  </si>
+  <si>
+    <t>Testar e verificar se o processo de exclusão viola ou não ACID</t>
+  </si>
+  <si>
+    <t>Testar, verificar e validar o requisito para garantir que o mesmo foi, validado e verificado, após hospedagem</t>
+  </si>
+  <si>
+    <t>Testar e garantir que os dados sejam deletados sem violações de segurança</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -158,10 +254,6 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -183,7 +275,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="22">
     <border/>
     <border>
       <left style="thick">
@@ -227,9 +319,6 @@
       <top style="thick">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
     </border>
     <border>
       <right style="medium">
@@ -238,13 +327,21 @@
       <top style="thick">
         <color rgb="FF000000"/>
       </top>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
     </border>
     <border>
-      <right style="thick">
-        <color rgb="FF000000"/>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thick">
         <color rgb="FF000000"/>
@@ -254,12 +351,54 @@
       </bottom>
     </border>
     <border>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <left style="thick">
         <color rgb="FF000000"/>
       </left>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
       <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+    </border>
+    <border>
+      <right style="thin">
         <color rgb="FF000000"/>
       </right>
     </border>
@@ -272,6 +411,22 @@
       </bottom>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
@@ -288,7 +443,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="29">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -304,34 +459,54 @@
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="10" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="12" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="15" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="16" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="17" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="18" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="19" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="19" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="20" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="19" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="21" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -640,6 +815,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="10" max="10" width="23.88"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -649,429 +827,717 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="3"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="7"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="9"/>
     </row>
     <row r="3">
-      <c r="A3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="B3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="10"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="14"/>
+      <c r="F3" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="16"/>
     </row>
     <row r="4">
-      <c r="A4" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="9" t="s">
+      <c r="A4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="18"/>
+      <c r="F4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="10"/>
+      <c r="G4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="16"/>
     </row>
     <row r="5">
-      <c r="A5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="10"/>
+      <c r="A5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="18"/>
+      <c r="F5" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="16"/>
     </row>
     <row r="6">
-      <c r="A6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="10"/>
+      <c r="A6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="16"/>
     </row>
     <row r="7">
-      <c r="A7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="9" t="s">
+      <c r="A7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="10"/>
+      <c r="D7" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="18"/>
+      <c r="F7" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="16"/>
     </row>
     <row r="8">
-      <c r="A8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="9" t="s">
+      <c r="A8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="18"/>
+      <c r="F8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="16"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="18"/>
+      <c r="F9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="16"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="18"/>
+      <c r="F10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="16"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="18"/>
+      <c r="F11" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="16"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="18"/>
+      <c r="F12" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="16"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="18"/>
+      <c r="F13" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="16"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="18"/>
+      <c r="F14" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" s="16"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="18"/>
+      <c r="F15" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="J15" s="16"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="18"/>
+      <c r="F16" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="J16" s="16"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="18"/>
+      <c r="F17" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="J17" s="16"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="18"/>
+      <c r="F18" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="J18" s="16"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="18"/>
+      <c r="F19" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J19" s="16"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="18"/>
+      <c r="F20" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="I20" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="9" t="s">
+      <c r="J20" s="16"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="18"/>
+      <c r="F21" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J21" s="16"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="18"/>
+      <c r="F22" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="9" t="s">
+      <c r="I22" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="J22" s="16"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="12" t="s">
+      <c r="D23" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="18"/>
+      <c r="F23" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="J23" s="16"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="10"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="10"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="10"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="10"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="10"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="10"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="10"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="10"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="10"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="10"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="8" t="s">
+      <c r="D24" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="18"/>
+      <c r="F24" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="G24" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="I24" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J24" s="16"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="18"/>
+      <c r="F25" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="G25" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" s="10"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" s="10"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" s="10"/>
+      <c r="I25" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="J25" s="16"/>
     </row>
     <row r="26">
-      <c r="A26" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" s="10"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="9" t="s">
+      <c r="A26" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="10"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E28" s="18"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="26"/>
+      <c r="F26" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="G26" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" s="24"/>
+      <c r="I26" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="J26" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="55">
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
+  <mergeCells count="102">
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
     <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D25:E25"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
     <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D11:E11"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D16:E16"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I20:J20"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:B28 C1 C11:C28">
+  <conditionalFormatting sqref="A1:G26 H1 H11:H26">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="RF-">
       <formula>NOT(ISERROR(SEARCH(("RF-"),(A1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:B28 C1 C11:C28">
+  <conditionalFormatting sqref="A1:G26 H1 H11:H26">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Teste de interface (UI/UX)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:B28 C1 C11:C28">
+  <conditionalFormatting sqref="A1:G26 H1 H11:H26">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"Teste de desempenho e segurança"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:B28 C1 C11:C28">
+  <conditionalFormatting sqref="A1:G26 H1 H11:H26">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"Teste de função"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:B28 C1 C11:C28">
+  <conditionalFormatting sqref="A1:G26 H1 H11:H26">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"Teste de integridade do banco de dados"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:B28 C1 C11:C28">
+  <conditionalFormatting sqref="A1:G26 H1 H11:H26">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"Teste extra"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:B28 C1 C11:C28">
+  <conditionalFormatting sqref="A1:G26 H1 H11:H26">
     <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>"Teste de verificação e validação"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A1:G26 H1 H11:H26">
+    <cfRule type="containsText" dxfId="0" priority="8" operator="containsText" text="RNF-">
+      <formula>NOT(ISERROR(SEARCH(("RNF-"),(A1))))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions gridLines="1" horizontalCentered="1"/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup fitToWidth="0" paperSize="8" cellComments="atEnd" orientation="portrait" pageOrder="overThenDown"/>
+  <pageSetup fitToWidth="0" paperSize="5" cellComments="atEnd" orientation="portrait" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>